--- a/analysis/nutritionToolbox/inputData/demoFoodDescription.xlsx
+++ b/analysis/nutritionToolbox/inputData/demoFoodDescription.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuigalwayie.sharepoint.com/sites/Group_MSP/Shared Documents/Projects/ViennaDiet/submissionNT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{ABAFB0B2-D918-4592-84EE-CF9033202EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65024B8A-80E0-4151-A332-6EF04A7EFB4E}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="8_{ABAFB0B2-D918-4592-84EE-CF9033202EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8C00721-0C91-4273-AA56-B048892D3D8B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48293E23-4C81-45F4-904E-74EA50084467}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{48293E23-4C81-45F4-904E-74EA50084467}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>databaseName</t>
   </si>
   <si>
-    <t>WeightEaten (g)</t>
-  </si>
-  <si>
     <t>Alcohol(g)</t>
   </si>
   <si>
@@ -261,6 +258,9 @@
   </si>
   <si>
     <t>Baby; grapefruit; salad; smoothie; frozen; cocktail; jam; vegetable; punch</t>
+  </si>
+  <si>
+    <t>ReferenceWeight(g)</t>
   </si>
 </sst>
 </file>
@@ -650,22 +650,22 @@
   <dimension ref="A1:R175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.54296875" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" customWidth="1"/>
+    <col min="11" max="11" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -682,39 +682,39 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
       </c>
       <c r="F2">
         <v>150</v>
@@ -745,12 +745,12 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -778,12 +778,12 @@
       </c>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
       </c>
       <c r="F4">
         <v>140</v>
@@ -811,15 +811,15 @@
       </c>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
       </c>
       <c r="F5">
         <v>20</v>
@@ -847,12 +847,12 @@
       </c>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
       </c>
       <c r="F6">
         <v>50</v>
@@ -880,12 +880,12 @@
       </c>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
       </c>
       <c r="F7">
         <v>50</v>
@@ -913,12 +913,12 @@
       </c>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -946,12 +946,12 @@
       </c>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
       </c>
       <c r="F9">
         <v>50</v>
@@ -979,12 +979,12 @@
       </c>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
       </c>
       <c r="F10">
         <v>35</v>
@@ -1012,12 +1012,12 @@
       </c>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
       </c>
       <c r="F11">
         <v>200</v>
@@ -1045,15 +1045,15 @@
       </c>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -1081,15 +1081,15 @@
       </c>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
       </c>
       <c r="F13">
         <v>21</v>
@@ -1117,12 +1117,12 @@
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
         <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
       </c>
       <c r="F14">
         <v>500</v>
@@ -1150,15 +1150,15 @@
       </c>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F15">
         <v>180</v>
@@ -1186,12 +1186,12 @@
       </c>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
         <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
       </c>
       <c r="F16">
         <v>200</v>
@@ -1219,12 +1219,12 @@
       </c>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
         <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -1252,15 +1252,15 @@
       </c>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
       </c>
       <c r="F18">
         <v>50</v>
@@ -1288,15 +1288,15 @@
       </c>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
         <v>49</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>50</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
       </c>
       <c r="F19">
         <v>30</v>
@@ -1324,15 +1324,15 @@
       </c>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
         <v>52</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -1360,12 +1360,12 @@
       </c>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
         <v>55</v>
-      </c>
-      <c r="B21" t="s">
-        <v>56</v>
       </c>
       <c r="F21">
         <v>40</v>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
         <v>57</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1426,15 +1426,15 @@
       </c>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
         <v>59</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>60</v>
-      </c>
-      <c r="C23" t="s">
-        <v>61</v>
       </c>
       <c r="F23">
         <v>85</v>
@@ -1462,12 +1462,12 @@
       </c>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
         <v>62</v>
-      </c>
-      <c r="B24" t="s">
-        <v>63</v>
       </c>
       <c r="F24">
         <v>1110</v>
@@ -1495,15 +1495,15 @@
       </c>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
         <v>64</v>
       </c>
-      <c r="B25" t="s">
-        <v>65</v>
-      </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F25">
         <v>100</v>
@@ -1531,15 +1531,15 @@
       </c>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26">
         <v>20</v>
@@ -1567,12 +1567,12 @@
       </c>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F27">
         <v>25</v>
@@ -1600,12 +1600,12 @@
       </c>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
         <v>68</v>
-      </c>
-      <c r="B28" t="s">
-        <v>69</v>
       </c>
       <c r="F28">
         <v>100</v>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="P28" s="2"/>
     </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:5" x14ac:dyDescent="0.75">
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
     </row>
@@ -1644,6 +1644,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="115d27ae-6a50-4eec-a8c0-aa0138fe553c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c759ece7-115b-4d09-a992-0736880850b1" xsi:nil="true"/>
+    <Keyword xmlns="115d27ae-6a50-4eec-a8c0-aa0138fe553c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D951DA713A5BE4DB914422C145C765D" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="187661b5ba509de40c852abd4410bd3b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="115d27ae-6a50-4eec-a8c0-aa0138fe553c" xmlns:ns3="c759ece7-115b-4d09-a992-0736880850b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f6e787b82b781108b21eaa2fc08711e2" ns2:_="" ns3:_="">
     <xsd:import namespace="115d27ae-6a50-4eec-a8c0-aa0138fe553c"/>
@@ -1906,28 +1927,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{227F5ECA-E1F3-4632-A17C-A6695B9BD1A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="115d27ae-6a50-4eec-a8c0-aa0138fe553c"/>
+    <ds:schemaRef ds:uri="c759ece7-115b-4d09-a992-0736880850b1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="115d27ae-6a50-4eec-a8c0-aa0138fe553c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c759ece7-115b-4d09-a992-0736880850b1" xsi:nil="true"/>
-    <Keyword xmlns="115d27ae-6a50-4eec-a8c0-aa0138fe553c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13403E01-D368-4EE6-B11B-3FFF8FEEC454}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C491949D-6B80-4DE7-B025-6F7ED036DB1A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1944,23 +1963,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13403E01-D368-4EE6-B11B-3FFF8FEEC454}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{227F5ECA-E1F3-4632-A17C-A6695B9BD1A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="115d27ae-6a50-4eec-a8c0-aa0138fe553c"/>
-    <ds:schemaRef ds:uri="c759ece7-115b-4d09-a992-0736880850b1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>